--- a/Code/Results/Cases/Case_0_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2581923079101358</v>
+        <v>0.3653238666359044</v>
       </c>
       <c r="D2">
-        <v>0.03857975073432307</v>
+        <v>0.08059530152428707</v>
       </c>
       <c r="E2">
-        <v>0.07524811526184649</v>
+        <v>0.13737175907238</v>
       </c>
       <c r="F2">
-        <v>1.221044024526776</v>
+        <v>1.686630687589314</v>
       </c>
       <c r="G2">
-        <v>1.194540356499374</v>
+        <v>1.614907548290091</v>
       </c>
       <c r="H2">
-        <v>0.7549807454509079</v>
+        <v>1.428435217505793</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.602705204240294</v>
+        <v>1.581237214977477</v>
       </c>
       <c r="L2">
-        <v>0.04623882667178236</v>
+        <v>0.1083823394979504</v>
       </c>
       <c r="M2">
-        <v>0.8205043812713555</v>
+        <v>0.5138977588375511</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2363798715868199</v>
+        <v>0.3622542047269661</v>
       </c>
       <c r="D3">
-        <v>0.04069415265238696</v>
+        <v>0.0813245864336043</v>
       </c>
       <c r="E3">
-        <v>0.07102032862666618</v>
+        <v>0.1372721066200171</v>
       </c>
       <c r="F3">
-        <v>1.139044260210298</v>
+        <v>1.682074153880379</v>
       </c>
       <c r="G3">
-        <v>1.117317463200322</v>
+        <v>1.612010330419267</v>
       </c>
       <c r="H3">
-        <v>0.7300298917470656</v>
+        <v>1.434474655793906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.120163684161867</v>
+        <v>1.446925348307275</v>
       </c>
       <c r="L3">
-        <v>0.04554660212757966</v>
+        <v>0.1089432774486525</v>
       </c>
       <c r="M3">
-        <v>0.7142234237475904</v>
+        <v>0.4867074740496449</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2234230526069894</v>
+        <v>0.360560720881864</v>
       </c>
       <c r="D4">
-        <v>0.04203958500486848</v>
+        <v>0.08179503714347902</v>
       </c>
       <c r="E4">
-        <v>0.06856265607760292</v>
+        <v>0.1372777038520319</v>
       </c>
       <c r="F4">
-        <v>1.091999017381454</v>
+        <v>1.680480148603792</v>
       </c>
       <c r="G4">
-        <v>1.073485634089778</v>
+        <v>1.611470734099527</v>
       </c>
       <c r="H4">
-        <v>0.7166614633913611</v>
+        <v>1.439021226938323</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.82632813135362</v>
+        <v>1.364900502348007</v>
       </c>
       <c r="L4">
-        <v>0.04520770693967435</v>
+        <v>0.1093339229114818</v>
       </c>
       <c r="M4">
-        <v>0.6497396152877641</v>
+        <v>0.4702352898092883</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2182437049672785</v>
+        <v>0.3599186713604325</v>
       </c>
       <c r="D5">
-        <v>0.04259930765186404</v>
+        <v>0.08199245552028955</v>
       </c>
       <c r="E5">
-        <v>0.067593475352826</v>
+        <v>0.1372967645639207</v>
       </c>
       <c r="F5">
-        <v>1.073593450591687</v>
+        <v>1.680132193302072</v>
       </c>
       <c r="G5">
-        <v>1.056453804824315</v>
+        <v>1.611561158678995</v>
       </c>
       <c r="H5">
-        <v>0.7116717157873893</v>
+        <v>1.441084337214988</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.707098672723788</v>
+        <v>1.331586669326043</v>
       </c>
       <c r="L5">
-        <v>0.04509009303895084</v>
+        <v>0.1095047319338676</v>
       </c>
       <c r="M5">
-        <v>0.6236300679255962</v>
+        <v>0.4635788003946146</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.217389507416101</v>
+        <v>0.3598149608813088</v>
       </c>
       <c r="D6">
-        <v>0.04269292945164516</v>
+        <v>0.0820255815026254</v>
       </c>
       <c r="E6">
-        <v>0.06743442978441649</v>
+        <v>0.1373009426492651</v>
       </c>
       <c r="F6">
-        <v>1.070581665025983</v>
+        <v>1.680092601094188</v>
       </c>
       <c r="G6">
-        <v>1.05367383384592</v>
+        <v>1.611594877291878</v>
       </c>
       <c r="H6">
-        <v>0.7108699228752755</v>
+        <v>1.44143960605534</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.687328676640362</v>
+        <v>1.32606171083637</v>
       </c>
       <c r="L6">
-        <v>0.04507176822022529</v>
+        <v>0.1095337961462874</v>
       </c>
       <c r="M6">
-        <v>0.6193040226678264</v>
+        <v>0.4624768827681294</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2233528059503271</v>
+        <v>0.3605518674471995</v>
       </c>
       <c r="D7">
-        <v>0.04204708777824884</v>
+        <v>0.08179767648695524</v>
       </c>
       <c r="E7">
-        <v>0.06854945747894092</v>
+        <v>0.1372778929885534</v>
       </c>
       <c r="F7">
-        <v>1.091747775155824</v>
+        <v>1.680474236161174</v>
       </c>
       <c r="G7">
-        <v>1.073252666357732</v>
+        <v>1.611470698903688</v>
       </c>
       <c r="H7">
-        <v>0.7165923569855295</v>
+        <v>1.439048199705695</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.824718224409253</v>
+        <v>1.364450766318242</v>
       </c>
       <c r="L7">
-        <v>0.04520603928341416</v>
+        <v>0.109336179470187</v>
       </c>
       <c r="M7">
-        <v>0.6493868452986007</v>
+        <v>0.4701452910173529</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2505752282422833</v>
+        <v>0.3642257130900219</v>
       </c>
       <c r="D8">
-        <v>0.03929873676815276</v>
+        <v>0.08084205805583622</v>
       </c>
       <c r="E8">
-        <v>0.07376017954974401</v>
+        <v>0.1373235291478387</v>
       </c>
       <c r="F8">
-        <v>1.192044426293535</v>
+        <v>1.684809109752095</v>
       </c>
       <c r="G8">
-        <v>1.167125699398042</v>
+        <v>1.613650569079837</v>
       </c>
       <c r="H8">
-        <v>0.7459521731430385</v>
+        <v>1.430343340838178</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.435751411202205</v>
+        <v>1.534834754488372</v>
       </c>
       <c r="L8">
-        <v>0.04598153814624339</v>
+        <v>0.1085661524548307</v>
       </c>
       <c r="M8">
-        <v>0.783681736922162</v>
+        <v>0.504476329334409</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3078646258721278</v>
+        <v>0.372950954620535</v>
       </c>
       <c r="D9">
-        <v>0.03430534763868032</v>
+        <v>0.07914767006918133</v>
       </c>
       <c r="E9">
-        <v>0.08519433821659916</v>
+        <v>0.1379437290642009</v>
       </c>
       <c r="F9">
-        <v>1.418133490884898</v>
+        <v>1.702912074937302</v>
       </c>
       <c r="G9">
-        <v>1.383153128485048</v>
+        <v>1.627820771337383</v>
       </c>
       <c r="H9">
-        <v>0.8206275210374656</v>
+        <v>1.419946777585892</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.658628745906867</v>
+        <v>1.872470978036972</v>
       </c>
       <c r="L9">
-        <v>0.04824351858456666</v>
+        <v>0.1074232633736329</v>
       </c>
       <c r="M9">
-        <v>1.05448065451391</v>
+        <v>0.5735693463577221</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3530253747873076</v>
+        <v>0.380293943980746</v>
       </c>
       <c r="D10">
-        <v>0.03091389886553486</v>
+        <v>0.07801190266244262</v>
       </c>
       <c r="E10">
-        <v>0.09452043751836925</v>
+        <v>0.1387243118438342</v>
       </c>
       <c r="F10">
-        <v>1.607101143962581</v>
+        <v>1.722141380791129</v>
       </c>
       <c r="G10">
-        <v>1.566755137465691</v>
+        <v>1.644353996551985</v>
       </c>
       <c r="H10">
-        <v>0.8884099092623501</v>
+        <v>1.416408736975058</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.580249411105342</v>
+        <v>2.122700263217212</v>
       </c>
       <c r="L10">
-        <v>0.05044635647275086</v>
+        <v>0.1068079381647209</v>
       </c>
       <c r="M10">
-        <v>1.260017689797252</v>
+        <v>0.6254208237557464</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3744110334760933</v>
+        <v>0.3838382332105823</v>
       </c>
       <c r="D11">
-        <v>0.02944110083467422</v>
+        <v>0.0775188339741959</v>
       </c>
       <c r="E11">
-        <v>0.09901065870118941</v>
+        <v>0.1391502976783912</v>
       </c>
       <c r="F11">
-        <v>1.699280361997154</v>
+        <v>1.732193281476071</v>
       </c>
       <c r="G11">
-        <v>1.657057238507349</v>
+        <v>1.653224467541889</v>
       </c>
       <c r="H11">
-        <v>0.9226836867534587</v>
+        <v>1.415696575298199</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.006622796797103</v>
+        <v>2.237014847267176</v>
       </c>
       <c r="L11">
-        <v>0.05158852362948707</v>
+        <v>0.106576853906418</v>
       </c>
       <c r="M11">
-        <v>1.355469207904051</v>
+        <v>0.6492484866796104</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3826467261525579</v>
+        <v>0.3852097697495083</v>
       </c>
       <c r="D12">
-        <v>0.02889446678918262</v>
+        <v>0.07733551185860676</v>
       </c>
       <c r="E12">
-        <v>0.1007510210633065</v>
+        <v>0.1393218245764096</v>
       </c>
       <c r="F12">
-        <v>1.735198776620791</v>
+        <v>1.736188518448159</v>
       </c>
       <c r="G12">
-        <v>1.692357885966032</v>
+        <v>1.656779064793255</v>
       </c>
       <c r="H12">
-        <v>0.9362170538781811</v>
+        <v>1.415556486424578</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.169299107713755</v>
+        <v>2.28037252678007</v>
       </c>
       <c r="L12">
-        <v>0.0520433217672327</v>
+        <v>0.1064963801221346</v>
       </c>
       <c r="M12">
-        <v>1.391943775230004</v>
+        <v>0.6583060381709913</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3808666298740206</v>
+        <v>0.3849130765537154</v>
       </c>
       <c r="D13">
-        <v>0.02901168324198267</v>
+        <v>0.07737484269153327</v>
       </c>
       <c r="E13">
-        <v>0.1003743477958317</v>
+        <v>0.1392844285259436</v>
       </c>
       <c r="F13">
-        <v>1.72741605364844</v>
+        <v>1.73531965606665</v>
       </c>
       <c r="G13">
-        <v>1.684703863590727</v>
+        <v>1.656004797953983</v>
       </c>
       <c r="H13">
-        <v>0.9332766986177603</v>
+        <v>1.415580884506369</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.134206350039051</v>
+        <v>2.271031601317873</v>
       </c>
       <c r="L13">
-        <v>0.05194434491252053</v>
+        <v>0.106513398626273</v>
       </c>
       <c r="M13">
-        <v>1.384072850603275</v>
+        <v>0.6563537964919988</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3750857344253404</v>
+        <v>0.3839504809147627</v>
       </c>
       <c r="D14">
-        <v>0.02939590036419482</v>
+        <v>0.07750368397047325</v>
       </c>
       <c r="E14">
-        <v>0.09915301043740854</v>
+        <v>0.1391642044490204</v>
       </c>
       <c r="F14">
-        <v>1.702214379226163</v>
+        <v>1.73251818111487</v>
       </c>
       <c r="G14">
-        <v>1.65993849236537</v>
+        <v>1.653512978835494</v>
       </c>
       <c r="H14">
-        <v>0.9237855992353161</v>
+        <v>1.415682449681412</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.019980672701422</v>
+        <v>2.240580524223958</v>
       </c>
       <c r="L14">
-        <v>0.051625480362123</v>
+        <v>0.1065700922678161</v>
       </c>
       <c r="M14">
-        <v>1.358463097293736</v>
+        <v>0.6499929647886233</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3715631818976135</v>
+        <v>0.3833646929006989</v>
       </c>
       <c r="D15">
-        <v>0.02963272087091262</v>
+        <v>0.07758304473199473</v>
       </c>
       <c r="E15">
-        <v>0.0984102560491138</v>
+        <v>0.1390918946888249</v>
       </c>
       <c r="F15">
-        <v>1.686913185216127</v>
+        <v>1.730826820824973</v>
       </c>
       <c r="G15">
-        <v>1.64491704798823</v>
+        <v>1.652012177622908</v>
       </c>
       <c r="H15">
-        <v>0.9180461631142123</v>
+        <v>1.415761554565279</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.950178904934205</v>
+        <v>2.221937365333815</v>
       </c>
       <c r="L15">
-        <v>0.05143313656184034</v>
+        <v>0.1066057349727245</v>
       </c>
       <c r="M15">
-        <v>1.342820787225889</v>
+        <v>0.6461012689544816</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3516460663665555</v>
+        <v>0.3800664255269055</v>
       </c>
       <c r="D16">
-        <v>0.03101164127923894</v>
+        <v>0.07804460060300755</v>
       </c>
       <c r="E16">
-        <v>0.09423233966951017</v>
+        <v>0.1386979010120228</v>
       </c>
       <c r="F16">
-        <v>1.601211901311629</v>
+        <v>1.721510818163082</v>
       </c>
       <c r="G16">
-        <v>1.561000902871143</v>
+        <v>1.643801572056645</v>
       </c>
       <c r="H16">
-        <v>0.8862442169271674</v>
+        <v>1.416473382291684</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.552544282745657</v>
+        <v>2.115239243104554</v>
       </c>
       <c r="L16">
-        <v>0.05037470928510146</v>
+        <v>0.1068240235946654</v>
       </c>
       <c r="M16">
-        <v>1.253822998024617</v>
+        <v>0.6238684622343555</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3396542221408652</v>
+        <v>0.3780953226584813</v>
       </c>
       <c r="D17">
-        <v>0.03187616298671259</v>
+        <v>0.0783337931610486</v>
       </c>
       <c r="E17">
-        <v>0.09173573910094035</v>
+        <v>0.1384743710943859</v>
       </c>
       <c r="F17">
-        <v>1.550309024742432</v>
+        <v>1.716130711682567</v>
       </c>
       <c r="G17">
-        <v>1.511345596032243</v>
+        <v>1.63911131399982</v>
       </c>
       <c r="H17">
-        <v>0.8676561634053996</v>
+        <v>1.417140284721569</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.310563514753881</v>
+        <v>2.049907091228022</v>
       </c>
       <c r="L17">
-        <v>0.04976272279355243</v>
+        <v>0.1069704509945915</v>
       </c>
       <c r="M17">
-        <v>1.199758356392536</v>
+        <v>0.6102908626154147</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3328349808380153</v>
+        <v>0.3769807868433759</v>
       </c>
       <c r="D18">
-        <v>0.03237993050908727</v>
+        <v>0.07850235020847762</v>
       </c>
       <c r="E18">
-        <v>0.09032278702286334</v>
+        <v>0.138352474284499</v>
       </c>
       <c r="F18">
-        <v>1.521608354326162</v>
+        <v>1.713158918443199</v>
       </c>
       <c r="G18">
-        <v>1.483414753909329</v>
+        <v>1.636540525885181</v>
       </c>
       <c r="H18">
-        <v>0.8572845307434989</v>
+        <v>1.417608294822855</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.172040209098213</v>
+        <v>2.01237534400309</v>
       </c>
       <c r="L18">
-        <v>0.04942376774513946</v>
+        <v>0.1070592676206772</v>
       </c>
       <c r="M18">
-        <v>1.168842285111083</v>
+        <v>0.6025039915511456</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3305390572536453</v>
+        <v>0.3766067181375092</v>
       </c>
       <c r="D19">
-        <v>0.03255158858487839</v>
+        <v>0.07855980225258818</v>
       </c>
       <c r="E19">
-        <v>0.08984821498899365</v>
+        <v>0.1383123473644652</v>
       </c>
       <c r="F19">
-        <v>1.511986577504899</v>
+        <v>1.712173757067504</v>
       </c>
       <c r="G19">
-        <v>1.474062262586472</v>
+        <v>1.635691855064522</v>
       </c>
       <c r="H19">
-        <v>0.8538260710482746</v>
+        <v>1.417781238181306</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.125246014738423</v>
+        <v>1.999675579591553</v>
       </c>
       <c r="L19">
-        <v>0.04931118242467036</v>
+        <v>0.1070901283450993</v>
       </c>
       <c r="M19">
-        <v>1.158404246120639</v>
+        <v>0.5998713734991128</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3409225736857024</v>
+        <v>0.378303163310477</v>
       </c>
       <c r="D20">
-        <v>0.03178345179470732</v>
+        <v>0.07830277825147292</v>
       </c>
       <c r="E20">
-        <v>0.09199909315600507</v>
+        <v>0.1384974755936277</v>
       </c>
       <c r="F20">
-        <v>1.555667160730664</v>
+        <v>1.716690725187675</v>
       </c>
       <c r="G20">
-        <v>1.516565435491486</v>
+        <v>1.639597453011532</v>
       </c>
       <c r="H20">
-        <v>0.8696013906885582</v>
+        <v>1.41706055010215</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.336253388300577</v>
+        <v>2.056857095964631</v>
       </c>
       <c r="L20">
-        <v>0.04982650515285059</v>
+        <v>0.1069543878566535</v>
       </c>
       <c r="M20">
-        <v>1.205494617519989</v>
+        <v>0.6117338817794717</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3767798543675838</v>
+        <v>0.3842324203791918</v>
       </c>
       <c r="D21">
-        <v>0.02928273673154891</v>
+        <v>0.07746574810245477</v>
       </c>
       <c r="E21">
-        <v>0.09951062330800653</v>
+        <v>0.1391992397664374</v>
       </c>
       <c r="F21">
-        <v>1.709588240256068</v>
+        <v>1.733335908389122</v>
       </c>
       <c r="G21">
-        <v>1.667181571643113</v>
+        <v>1.65423956758039</v>
       </c>
       <c r="H21">
-        <v>0.9265577975811539</v>
+        <v>1.415649095977443</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.053496808655552</v>
+        <v>2.249522867666997</v>
       </c>
       <c r="L21">
-        <v>0.05171851548914574</v>
+        <v>0.1065532490128263</v>
       </c>
       <c r="M21">
-        <v>1.365975954125091</v>
+        <v>0.6518603580180127</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4010246166709805</v>
+        <v>0.3882788790444067</v>
       </c>
       <c r="D22">
-        <v>0.02771357521926276</v>
+        <v>0.07693847341137783</v>
       </c>
       <c r="E22">
-        <v>0.104655496635516</v>
+        <v>0.1397174358398843</v>
       </c>
       <c r="F22">
-        <v>1.816149601187306</v>
+        <v>1.745315546834391</v>
       </c>
       <c r="G22">
-        <v>1.772132115466547</v>
+        <v>1.66494950687408</v>
       </c>
       <c r="H22">
-        <v>0.9670482733115477</v>
+        <v>1.415482249152745</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.529463395930009</v>
+        <v>2.375844455235324</v>
       </c>
       <c r="L22">
-        <v>0.0530861288386113</v>
+        <v>0.1063320795110094</v>
       </c>
       <c r="M22">
-        <v>1.472805185268498</v>
+        <v>0.678286618106668</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.388004696182918</v>
+        <v>0.3861035071125229</v>
       </c>
       <c r="D23">
-        <v>0.02854471752212184</v>
+        <v>0.07721808077679881</v>
       </c>
       <c r="E23">
-        <v>0.1018864282534153</v>
+        <v>0.1394354087919076</v>
       </c>
       <c r="F23">
-        <v>1.758687139341191</v>
+        <v>1.738820633891251</v>
       </c>
       <c r="G23">
-        <v>1.715474742774319</v>
+        <v>1.659128560919299</v>
       </c>
       <c r="H23">
-        <v>0.9451170782998872</v>
+        <v>1.415501973206517</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.274701431808751</v>
+        <v>2.308387450811267</v>
       </c>
       <c r="L23">
-        <v>0.05234343833761201</v>
+        <v>0.1064463667947315</v>
       </c>
       <c r="M23">
-        <v>1.415592821408126</v>
+        <v>0.6641640063576233</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3403489194631106</v>
+        <v>0.3782091403803065</v>
       </c>
       <c r="D24">
-        <v>0.03182534559818073</v>
+        <v>0.07831679293862237</v>
       </c>
       <c r="E24">
-        <v>0.09187996141394805</v>
+        <v>0.1384870094511435</v>
       </c>
       <c r="F24">
-        <v>1.553242999246507</v>
+        <v>1.716437165329907</v>
       </c>
       <c r="G24">
-        <v>1.514203634967316</v>
+        <v>1.639377278122055</v>
       </c>
       <c r="H24">
-        <v>0.8687209770806135</v>
+        <v>1.417096334641741</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.324637158568294</v>
+        <v>2.053714909786834</v>
       </c>
       <c r="L24">
-        <v>0.04979762917553998</v>
+        <v>0.1069616355690783</v>
       </c>
       <c r="M24">
-        <v>1.202900739121262</v>
+        <v>0.6110814334109165</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.291881229970528</v>
+        <v>0.3704271769916119</v>
       </c>
       <c r="D25">
-        <v>0.03561045027418253</v>
+        <v>0.07958686325399356</v>
       </c>
       <c r="E25">
-        <v>0.0819530398490258</v>
+        <v>0.1377189909239824</v>
       </c>
       <c r="F25">
-        <v>1.35334340273802</v>
+        <v>1.696978996612586</v>
       </c>
       <c r="G25">
-        <v>1.320767185787901</v>
+        <v>1.622918714986014</v>
       </c>
       <c r="H25">
-        <v>0.7983533167032704</v>
+        <v>1.422041583310005</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.324380100404085</v>
+        <v>1.780752751817545</v>
       </c>
       <c r="L25">
-        <v>0.04754359548790177</v>
+        <v>0.1076930860368641</v>
       </c>
       <c r="M25">
-        <v>0.9802272137359012</v>
+        <v>0.5546873876687926</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3653238666359044</v>
+        <v>0.2581923079101074</v>
       </c>
       <c r="D2">
-        <v>0.08059530152428707</v>
+        <v>0.03857975073442788</v>
       </c>
       <c r="E2">
-        <v>0.13737175907238</v>
+        <v>0.07524811526183228</v>
       </c>
       <c r="F2">
-        <v>1.686630687589314</v>
+        <v>1.221044024526805</v>
       </c>
       <c r="G2">
-        <v>1.614907548290091</v>
+        <v>1.19454035649936</v>
       </c>
       <c r="H2">
-        <v>1.428435217505793</v>
+        <v>0.7549807454510216</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.581237214977477</v>
+        <v>3.602705204240351</v>
       </c>
       <c r="L2">
-        <v>0.1083823394979504</v>
+        <v>0.04623882667186408</v>
       </c>
       <c r="M2">
-        <v>0.5138977588375511</v>
+        <v>0.8205043812713626</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3622542047269661</v>
+        <v>0.2363798715868057</v>
       </c>
       <c r="D3">
-        <v>0.0813245864336043</v>
+        <v>0.04069415265225018</v>
       </c>
       <c r="E3">
-        <v>0.1372721066200171</v>
+        <v>0.07102032862667684</v>
       </c>
       <c r="F3">
-        <v>1.682074153880379</v>
+        <v>1.139044260210341</v>
       </c>
       <c r="G3">
-        <v>1.612010330419267</v>
+        <v>1.117317463200266</v>
       </c>
       <c r="H3">
-        <v>1.434474655793906</v>
+        <v>0.7300298917470514</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.446925348307275</v>
+        <v>3.120163684162037</v>
       </c>
       <c r="L3">
-        <v>0.1089432774486525</v>
+        <v>0.04554660212760098</v>
       </c>
       <c r="M3">
-        <v>0.4867074740496449</v>
+        <v>0.7142234237476188</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.360560720881864</v>
+        <v>0.2234230526071457</v>
       </c>
       <c r="D4">
-        <v>0.08179503714347902</v>
+        <v>0.0420395850049502</v>
       </c>
       <c r="E4">
-        <v>0.1372777038520319</v>
+        <v>0.06856265607760648</v>
       </c>
       <c r="F4">
-        <v>1.680480148603792</v>
+        <v>1.09199901738144</v>
       </c>
       <c r="G4">
-        <v>1.611470734099527</v>
+        <v>1.073485634089806</v>
       </c>
       <c r="H4">
-        <v>1.439021226938323</v>
+        <v>0.7166614633913753</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.364900502348007</v>
+        <v>2.826328131353506</v>
       </c>
       <c r="L4">
-        <v>0.1093339229114818</v>
+        <v>0.04520770693967791</v>
       </c>
       <c r="M4">
-        <v>0.4702352898092883</v>
+        <v>0.6497396152877499</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3599186713604325</v>
+        <v>0.2182437049671506</v>
       </c>
       <c r="D5">
-        <v>0.08199245552028955</v>
+        <v>0.04259930765186581</v>
       </c>
       <c r="E5">
-        <v>0.1372967645639207</v>
+        <v>0.067593475352826</v>
       </c>
       <c r="F5">
-        <v>1.680132193302072</v>
+        <v>1.073593450591687</v>
       </c>
       <c r="G5">
-        <v>1.611561158678995</v>
+        <v>1.056453804824272</v>
       </c>
       <c r="H5">
-        <v>1.441084337214988</v>
+        <v>0.711671715787503</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.331586669326043</v>
+        <v>2.70709867272393</v>
       </c>
       <c r="L5">
-        <v>0.1095047319338676</v>
+        <v>0.04509009303894729</v>
       </c>
       <c r="M5">
-        <v>0.4635788003946146</v>
+        <v>0.6236300679255962</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3598149608813088</v>
+        <v>0.2173895074162289</v>
       </c>
       <c r="D6">
-        <v>0.0820255815026254</v>
+        <v>0.0426929294515741</v>
       </c>
       <c r="E6">
-        <v>0.1373009426492651</v>
+        <v>0.06743442978444492</v>
       </c>
       <c r="F6">
-        <v>1.680092601094188</v>
+        <v>1.070581665025983</v>
       </c>
       <c r="G6">
-        <v>1.611594877291878</v>
+        <v>1.053673833845835</v>
       </c>
       <c r="H6">
-        <v>1.44143960605534</v>
+        <v>0.7108699228753892</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.32606171083637</v>
+        <v>2.687328676640277</v>
       </c>
       <c r="L6">
-        <v>0.1095337961462874</v>
+        <v>0.04507176822027859</v>
       </c>
       <c r="M6">
-        <v>0.4624768827681294</v>
+        <v>0.6193040226678193</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3605518674471995</v>
+        <v>0.2233528059502135</v>
       </c>
       <c r="D7">
-        <v>0.08179767648695524</v>
+        <v>0.04204708777812804</v>
       </c>
       <c r="E7">
-        <v>0.1372778929885534</v>
+        <v>0.06854945747892316</v>
       </c>
       <c r="F7">
-        <v>1.680474236161174</v>
+        <v>1.09174777515581</v>
       </c>
       <c r="G7">
-        <v>1.611470698903688</v>
+        <v>1.073252666357703</v>
       </c>
       <c r="H7">
-        <v>1.439048199705695</v>
+        <v>0.7165923569855153</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.364450766318242</v>
+        <v>2.824718224409168</v>
       </c>
       <c r="L7">
-        <v>0.109336179470187</v>
+        <v>0.04520603928334666</v>
       </c>
       <c r="M7">
-        <v>0.4701452910173529</v>
+        <v>0.6493868452985936</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3642257130900219</v>
+        <v>0.2505752282422691</v>
       </c>
       <c r="D8">
-        <v>0.08084205805583622</v>
+        <v>0.03929873676797158</v>
       </c>
       <c r="E8">
-        <v>0.1373235291478387</v>
+        <v>0.0737601795497298</v>
       </c>
       <c r="F8">
-        <v>1.684809109752095</v>
+        <v>1.192044426293563</v>
       </c>
       <c r="G8">
-        <v>1.613650569079837</v>
+        <v>1.167125699397943</v>
       </c>
       <c r="H8">
-        <v>1.430343340838178</v>
+        <v>0.7459521731430527</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.534834754488372</v>
+        <v>3.435751411202261</v>
       </c>
       <c r="L8">
-        <v>0.1085661524548307</v>
+        <v>0.0459815381462505</v>
       </c>
       <c r="M8">
-        <v>0.504476329334409</v>
+        <v>0.7836817369221478</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.372950954620535</v>
+        <v>0.3078646258719573</v>
       </c>
       <c r="D9">
-        <v>0.07914767006918133</v>
+        <v>0.03430534763857018</v>
       </c>
       <c r="E9">
-        <v>0.1379437290642009</v>
+        <v>0.08519433821653521</v>
       </c>
       <c r="F9">
-        <v>1.702912074937302</v>
+        <v>1.418133490884912</v>
       </c>
       <c r="G9">
-        <v>1.627820771337383</v>
+        <v>1.383153128484963</v>
       </c>
       <c r="H9">
-        <v>1.419946777585892</v>
+        <v>0.8206275210375509</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.872470978036972</v>
+        <v>4.65862874590681</v>
       </c>
       <c r="L9">
-        <v>0.1074232633736329</v>
+        <v>0.04824351858457376</v>
       </c>
       <c r="M9">
-        <v>0.5735693463577221</v>
+        <v>1.054480654513902</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.380293943980746</v>
+        <v>0.3530253747873644</v>
       </c>
       <c r="D10">
-        <v>0.07801190266244262</v>
+        <v>0.03091389886564144</v>
       </c>
       <c r="E10">
-        <v>0.1387243118438342</v>
+        <v>0.0945204375183728</v>
       </c>
       <c r="F10">
-        <v>1.722141380791129</v>
+        <v>1.607101143962595</v>
       </c>
       <c r="G10">
-        <v>1.644353996551985</v>
+        <v>1.566755137465691</v>
       </c>
       <c r="H10">
-        <v>1.416408736975058</v>
+        <v>0.8884099092623217</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.122700263217212</v>
+        <v>5.580249411105285</v>
       </c>
       <c r="L10">
-        <v>0.1068079381647209</v>
+        <v>0.05044635647271889</v>
       </c>
       <c r="M10">
-        <v>0.6254208237557464</v>
+        <v>1.260017689797266</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3838382332105823</v>
+        <v>0.3744110334764343</v>
       </c>
       <c r="D11">
-        <v>0.0775188339741959</v>
+        <v>0.02944110083455875</v>
       </c>
       <c r="E11">
-        <v>0.1391502976783912</v>
+        <v>0.09901065870122139</v>
       </c>
       <c r="F11">
-        <v>1.732193281476071</v>
+        <v>1.69928036199714</v>
       </c>
       <c r="G11">
-        <v>1.653224467541889</v>
+        <v>1.657057238507377</v>
       </c>
       <c r="H11">
-        <v>1.415696575298199</v>
+        <v>0.922683686753544</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.237014847267176</v>
+        <v>6.006622796797103</v>
       </c>
       <c r="L11">
-        <v>0.106576853906418</v>
+        <v>0.05158852362943733</v>
       </c>
       <c r="M11">
-        <v>0.6492484866796104</v>
+        <v>1.355469207904051</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3852097697495083</v>
+        <v>0.3826467261528705</v>
       </c>
       <c r="D12">
-        <v>0.07733551185860676</v>
+        <v>0.02889446678896768</v>
       </c>
       <c r="E12">
-        <v>0.1393218245764096</v>
+        <v>0.1007510210632958</v>
       </c>
       <c r="F12">
-        <v>1.736188518448159</v>
+        <v>1.735198776620777</v>
       </c>
       <c r="G12">
-        <v>1.656779064793255</v>
+        <v>1.692357885966004</v>
       </c>
       <c r="H12">
-        <v>1.415556486424578</v>
+        <v>0.9362170538782095</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.28037252678007</v>
+        <v>6.169299107713869</v>
       </c>
       <c r="L12">
-        <v>0.1064963801221346</v>
+        <v>0.05204332176737481</v>
       </c>
       <c r="M12">
-        <v>0.6583060381709913</v>
+        <v>1.39194377522999</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3849130765537154</v>
+        <v>0.3808666298738785</v>
       </c>
       <c r="D13">
-        <v>0.07737484269153327</v>
+        <v>0.02901168324199865</v>
       </c>
       <c r="E13">
-        <v>0.1392844285259436</v>
+        <v>0.1003743477958139</v>
       </c>
       <c r="F13">
-        <v>1.73531965606665</v>
+        <v>1.727416053648412</v>
       </c>
       <c r="G13">
-        <v>1.656004797953983</v>
+        <v>1.684703863590698</v>
       </c>
       <c r="H13">
-        <v>1.415580884506369</v>
+        <v>0.9332766986177319</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.271031601317873</v>
+        <v>6.134206350038937</v>
       </c>
       <c r="L13">
-        <v>0.106513398626273</v>
+        <v>0.05194434491249922</v>
       </c>
       <c r="M13">
-        <v>0.6563537964919988</v>
+        <v>1.384072850603275</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3839504809147627</v>
+        <v>0.3750857344250846</v>
       </c>
       <c r="D14">
-        <v>0.07750368397047325</v>
+        <v>0.02939590036415041</v>
       </c>
       <c r="E14">
-        <v>0.1391642044490204</v>
+        <v>0.09915301043746538</v>
       </c>
       <c r="F14">
-        <v>1.73251818111487</v>
+        <v>1.702214379226191</v>
       </c>
       <c r="G14">
-        <v>1.653512978835494</v>
+        <v>1.659938492365313</v>
       </c>
       <c r="H14">
-        <v>1.415682449681412</v>
+        <v>0.9237855992352024</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.240580524223958</v>
+        <v>6.019980672701536</v>
       </c>
       <c r="L14">
-        <v>0.1065700922678161</v>
+        <v>0.05162548036223313</v>
       </c>
       <c r="M14">
-        <v>0.6499929647886233</v>
+        <v>1.358463097293694</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3833646929006989</v>
+        <v>0.3715631818978693</v>
       </c>
       <c r="D15">
-        <v>0.07758304473199473</v>
+        <v>0.02963272087082558</v>
       </c>
       <c r="E15">
-        <v>0.1390918946888249</v>
+        <v>0.09841025604908538</v>
       </c>
       <c r="F15">
-        <v>1.730826820824973</v>
+        <v>1.686913185216127</v>
       </c>
       <c r="G15">
-        <v>1.652012177622908</v>
+        <v>1.644917047988258</v>
       </c>
       <c r="H15">
-        <v>1.415761554565279</v>
+        <v>0.9180461631142691</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.221937365333815</v>
+        <v>5.950178904934262</v>
       </c>
       <c r="L15">
-        <v>0.1066057349727245</v>
+        <v>0.05143313656168758</v>
       </c>
       <c r="M15">
-        <v>0.6461012689544816</v>
+        <v>1.342820787225904</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3800664255269055</v>
+        <v>0.3516460663663565</v>
       </c>
       <c r="D16">
-        <v>0.07804460060300755</v>
+        <v>0.03101164127935618</v>
       </c>
       <c r="E16">
-        <v>0.1386979010120228</v>
+        <v>0.09423233966953859</v>
       </c>
       <c r="F16">
-        <v>1.721510818163082</v>
+        <v>1.601211901311615</v>
       </c>
       <c r="G16">
-        <v>1.643801572056645</v>
+        <v>1.561000902871172</v>
       </c>
       <c r="H16">
-        <v>1.416473382291684</v>
+        <v>0.886244216927139</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.115239243104554</v>
+        <v>5.552544282745714</v>
       </c>
       <c r="L16">
-        <v>0.1068240235946654</v>
+        <v>0.05037470928504106</v>
       </c>
       <c r="M16">
-        <v>0.6238684622343555</v>
+        <v>1.253822998024617</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3780953226584813</v>
+        <v>0.3396542221406946</v>
       </c>
       <c r="D17">
-        <v>0.0783337931610486</v>
+        <v>0.03187616298651008</v>
       </c>
       <c r="E17">
-        <v>0.1384743710943859</v>
+        <v>0.09173573910095811</v>
       </c>
       <c r="F17">
-        <v>1.716130711682567</v>
+        <v>1.550309024742404</v>
       </c>
       <c r="G17">
-        <v>1.63911131399982</v>
+        <v>1.511345596032271</v>
       </c>
       <c r="H17">
-        <v>1.417140284721569</v>
+        <v>0.8676561634052575</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.049907091228022</v>
+        <v>5.310563514754051</v>
       </c>
       <c r="L17">
-        <v>0.1069704509945915</v>
+        <v>0.04976272279355953</v>
       </c>
       <c r="M17">
-        <v>0.6102908626154147</v>
+        <v>1.19975835639255</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3769807868433759</v>
+        <v>0.3328349808384132</v>
       </c>
       <c r="D18">
-        <v>0.07850235020847762</v>
+        <v>0.03237993050917432</v>
       </c>
       <c r="E18">
-        <v>0.138352474284499</v>
+        <v>0.09032278702285623</v>
       </c>
       <c r="F18">
-        <v>1.713158918443199</v>
+        <v>1.521608354326162</v>
       </c>
       <c r="G18">
-        <v>1.636540525885181</v>
+        <v>1.483414753909329</v>
       </c>
       <c r="H18">
-        <v>1.417608294822855</v>
+        <v>0.8572845307434989</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.01237534400309</v>
+        <v>5.172040209098384</v>
       </c>
       <c r="L18">
-        <v>0.1070592676206772</v>
+        <v>0.04942376774502577</v>
       </c>
       <c r="M18">
-        <v>0.6025039915511456</v>
+        <v>1.168842285111054</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3766067181375092</v>
+        <v>0.3305390572537021</v>
       </c>
       <c r="D19">
-        <v>0.07855980225258818</v>
+        <v>0.03255158858491569</v>
       </c>
       <c r="E19">
-        <v>0.1383123473644652</v>
+        <v>0.08984821498896167</v>
       </c>
       <c r="F19">
-        <v>1.712173757067504</v>
+        <v>1.511986577504885</v>
       </c>
       <c r="G19">
-        <v>1.635691855064522</v>
+        <v>1.474062262586443</v>
       </c>
       <c r="H19">
-        <v>1.417781238181306</v>
+        <v>0.8538260710481893</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.999675579591553</v>
+        <v>5.125246014738252</v>
       </c>
       <c r="L19">
-        <v>0.1070901283450993</v>
+        <v>0.04931118242458865</v>
       </c>
       <c r="M19">
-        <v>0.5998713734991128</v>
+        <v>1.158404246120639</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.378303163310477</v>
+        <v>0.3409225736851909</v>
       </c>
       <c r="D20">
-        <v>0.07830277825147292</v>
+        <v>0.03178345179479436</v>
       </c>
       <c r="E20">
-        <v>0.1384974755936277</v>
+        <v>0.09199909315595889</v>
       </c>
       <c r="F20">
-        <v>1.716690725187675</v>
+        <v>1.555667160730664</v>
       </c>
       <c r="G20">
-        <v>1.639597453011532</v>
+        <v>1.516565435491515</v>
       </c>
       <c r="H20">
-        <v>1.41706055010215</v>
+        <v>0.8696013906885582</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.056857095964631</v>
+        <v>5.33625338830052</v>
       </c>
       <c r="L20">
-        <v>0.1069543878566535</v>
+        <v>0.04982650515294651</v>
       </c>
       <c r="M20">
-        <v>0.6117338817794717</v>
+        <v>1.205494617520003</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3842324203791918</v>
+        <v>0.3767798543674417</v>
       </c>
       <c r="D21">
-        <v>0.07746574810245477</v>
+        <v>0.02928273673174786</v>
       </c>
       <c r="E21">
-        <v>0.1391992397664374</v>
+        <v>0.09951062330799942</v>
       </c>
       <c r="F21">
-        <v>1.733335908389122</v>
+        <v>1.709588240256068</v>
       </c>
       <c r="G21">
-        <v>1.65423956758039</v>
+        <v>1.667181571643169</v>
       </c>
       <c r="H21">
-        <v>1.415649095977443</v>
+        <v>0.9265577975811823</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.249522867666997</v>
+        <v>6.053496808655609</v>
       </c>
       <c r="L21">
-        <v>0.1065532490128263</v>
+        <v>0.05171851548913864</v>
       </c>
       <c r="M21">
-        <v>0.6518603580180127</v>
+        <v>1.365975954125091</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3882788790444067</v>
+        <v>0.4010246166712363</v>
       </c>
       <c r="D22">
-        <v>0.07693847341137783</v>
+        <v>0.02771357521925566</v>
       </c>
       <c r="E22">
-        <v>0.1397174358398843</v>
+        <v>0.1046554966355657</v>
       </c>
       <c r="F22">
-        <v>1.745315546834391</v>
+        <v>1.816149601187291</v>
       </c>
       <c r="G22">
-        <v>1.66494950687408</v>
+        <v>1.772132115466604</v>
       </c>
       <c r="H22">
-        <v>1.415482249152745</v>
+        <v>0.9670482733115477</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.375844455235324</v>
+        <v>6.529463395930122</v>
       </c>
       <c r="L22">
-        <v>0.1063320795110094</v>
+        <v>0.05308612883870367</v>
       </c>
       <c r="M22">
-        <v>0.678286618106668</v>
+        <v>1.472805185268498</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3861035071125229</v>
+        <v>0.3880046961834296</v>
       </c>
       <c r="D23">
-        <v>0.07721808077679881</v>
+        <v>0.02854471752223198</v>
       </c>
       <c r="E23">
-        <v>0.1394354087919076</v>
+        <v>0.1018864282534082</v>
       </c>
       <c r="F23">
-        <v>1.738820633891251</v>
+        <v>1.758687139341177</v>
       </c>
       <c r="G23">
-        <v>1.659128560919299</v>
+        <v>1.715474742774404</v>
       </c>
       <c r="H23">
-        <v>1.415501973206517</v>
+        <v>0.9451170782998872</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.308387450811267</v>
+        <v>6.274701431808694</v>
       </c>
       <c r="L23">
-        <v>0.1064463667947315</v>
+        <v>0.05234343833760846</v>
       </c>
       <c r="M23">
-        <v>0.6641640063576233</v>
+        <v>1.415592821408154</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3782091403803065</v>
+        <v>0.3403489194633664</v>
       </c>
       <c r="D24">
-        <v>0.07831679293862237</v>
+        <v>0.0318253455982056</v>
       </c>
       <c r="E24">
-        <v>0.1384870094511435</v>
+        <v>0.09187996141396582</v>
       </c>
       <c r="F24">
-        <v>1.716437165329907</v>
+        <v>1.553242999246507</v>
       </c>
       <c r="G24">
-        <v>1.639377278122055</v>
+        <v>1.514203634967259</v>
       </c>
       <c r="H24">
-        <v>1.417096334641741</v>
+        <v>0.8687209770804714</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.053714909786834</v>
+        <v>5.324637158568464</v>
       </c>
       <c r="L24">
-        <v>0.1069616355690783</v>
+        <v>0.04979762917558617</v>
       </c>
       <c r="M24">
-        <v>0.6110814334109165</v>
+        <v>1.202900739121276</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3704271769916119</v>
+        <v>0.2918812299707412</v>
       </c>
       <c r="D25">
-        <v>0.07958686325399356</v>
+        <v>0.03561045027417187</v>
       </c>
       <c r="E25">
-        <v>0.1377189909239824</v>
+        <v>0.08195303984898672</v>
       </c>
       <c r="F25">
-        <v>1.696978996612586</v>
+        <v>1.353343402738005</v>
       </c>
       <c r="G25">
-        <v>1.622918714986014</v>
+        <v>1.320767185787957</v>
       </c>
       <c r="H25">
-        <v>1.422041583310005</v>
+        <v>0.7983533167032704</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.780752751817545</v>
+        <v>4.324380100404198</v>
       </c>
       <c r="L25">
-        <v>0.1076930860368641</v>
+        <v>0.04754359548786624</v>
       </c>
       <c r="M25">
-        <v>0.5546873876687926</v>
+        <v>0.9802272137359154</v>
       </c>
       <c r="N25">
         <v>0</v>
